--- a/2A/Stage France/ContrôleLaitier.xlsx
+++ b/2A/Stage France/ContrôleLaitier.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Cours_ISARA\2A\Stage France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF9B47-2152-49FB-88FE-776D4C7BD5C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95072FF2-9EE1-4EDB-A227-D8AEE968C010}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F9435453-07A1-46A8-A005-0AAC997A1F50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Evolution taux TB/TB</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Quantité lait (L)</t>
+  </si>
+  <si>
+    <t>nb de chèvres</t>
   </si>
 </sst>
 </file>
@@ -614,6 +617,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="838452792"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -1248,16 +1252,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1585,7 +1589,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,6 +1601,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -1621,6 +1628,9 @@
       </c>
       <c r="D3">
         <v>1.7</v>
+      </c>
+      <c r="E3">
+        <v>135</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1637,6 +1647,9 @@
       <c r="D4">
         <v>1.5</v>
       </c>
+      <c r="E4">
+        <v>133</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1658,6 +1671,9 @@
       <c r="D6">
         <v>2.2000000000000002</v>
       </c>
+      <c r="E6">
+        <v>110</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,6 +1689,9 @@
       <c r="D7">
         <v>1.7</v>
       </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1688,6 +1707,9 @@
       <c r="D8">
         <v>1.5</v>
       </c>
+      <c r="E8">
+        <v>135</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1708,6 +1730,9 @@
       </c>
       <c r="D10">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="E10">
+        <v>121</v>
       </c>
       <c r="F10" s="1"/>
     </row>
